--- a/Labs/SQL_Server/Normalization/Raw_data.xlsx
+++ b/Labs/SQL_Server/Normalization/Raw_data.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Azure\Training\Capgemini\Assignments\Azure_Big_Data_Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Azure\Training\Capgemini\Assignments\Azure_Big_Data_Training_dec_feb\Labs\SQL_Server\Normalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF38CF4-B106-4ACF-8E5E-333AFF71A133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3384C93-5F1B-4D7E-B03A-C1D16ABEC14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{98866DC7-65CE-44AF-8B75-7FCC32DA9B06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{98866DC7-65CE-44AF-8B75-7FCC32DA9B06}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Normalized_to_1NF" sheetId="2" r:id="rId2"/>
+    <sheet name="Normalized_to_2NF" sheetId="3" r:id="rId3"/>
+    <sheet name="Normalized_to_3NF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="45">
   <si>
     <t>OrderID</t>
   </si>
@@ -105,6 +108,72 @@
   </si>
   <si>
     <t>Scroll across to view the full data set if necessary.</t>
+  </si>
+  <si>
+    <t>Orders Table</t>
+  </si>
+  <si>
+    <t>Phone Table</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>OrderDetails Table</t>
+  </si>
+  <si>
+    <t>OrderID (Key)</t>
+  </si>
+  <si>
+    <t>OrderID(Key)</t>
+  </si>
+  <si>
+    <t>Product(Key)</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>CB-2903</t>
+  </si>
+  <si>
+    <t>BA-8327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA-8327 </t>
+  </si>
+  <si>
+    <t>BE-2349</t>
+  </si>
+  <si>
+    <t>BE-2908</t>
+  </si>
+  <si>
+    <t>Decomposed original data set into three tables</t>
+  </si>
+  <si>
+    <t>Repeating data groups removed</t>
+  </si>
+  <si>
+    <t>Tables have unique identifiers</t>
+  </si>
+  <si>
+    <t>Product Table</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>Customer Table</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>Date_of_Birth</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
   </si>
 </sst>
 </file>
@@ -151,12 +220,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF9525E-5369-4EAA-B51C-530D1CD6641B}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,4 +710,850 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9447440-C6EE-49C5-BF57-4E996E69897B}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4">
+        <v>25895</v>
+      </c>
+      <c r="F3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>30148</v>
+      </c>
+      <c r="F4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42372</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4">
+        <v>34423</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>3545435413</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>36465465436</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>34643434</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>34134213242</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>35432434</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F090DB78-0C4A-4841-9F18-A96642C67D6C}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4">
+        <v>25895</v>
+      </c>
+      <c r="F3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
+        <v>30148</v>
+      </c>
+      <c r="F4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42372</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4">
+        <v>34423</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>3545435413</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>36465465436</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>34643434</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>34134213242</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>35432434</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>3545435413</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>36465465436</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>34643434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>34134213242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>35432434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>5.99</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52680589-A33D-47C4-83E9-57A0530E0E77}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>42371</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42371</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4">
+        <v>25895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42372</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4">
+        <v>30148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4">
+        <v>34423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>3545435413</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>36465465436</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>34643434</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>34134213242</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>35432434</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>